--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:15:24+00:00</t>
+    <t>2022-07-20T08:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:05:17+00:00</t>
+    <t>2022-07-20T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:58:56+00:00</t>
+    <t>2022-07-20T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T10:32:08+00:00</t>
+    <t>2022-07-22T13:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T13:13:55+00:00</t>
+    <t>2022-07-22T14:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/CodeSystem-jp-procedure-reason-codes-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T14:30:02+00:00</t>
+    <t>2022-07-22T14:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
